--- a/src/test/resources/Documents/18110/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/18110/Actual/JobPlanning.xlsx
@@ -95,19 +95,19 @@
     <t>Front Cover   2p</t>
   </si>
   <si>
+    <t>Proof Approval</t>
+  </si>
+  <si>
+    <t>STL Proof Approval</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>Digital Print F 4x0</t>
   </si>
   <si>
     <t>HC NexPress 1-4c</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Proof Approval</t>
-  </si>
-  <si>
-    <t>STL Proof Approval</t>
   </si>
   <si>
     <t>Text  2p</t>
@@ -857,7 +857,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s" s="55">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="56">
         <v>18</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s" s="68">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="69">
         <v>18</v>
